--- a/Mission/Découverte du matériels entreprise/Range ip et vlan mission 1-2.xlsx
+++ b/Mission/Découverte du matériels entreprise/Range ip et vlan mission 1-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdh\Documents\GitHub\Stage_Henallux\Mission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdh\Documents\GitHub\Stage_Henallux\Mission\Découverte du matériels entreprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0840B-FFC3-4720-896A-DC6296BFE636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92D5ED-99DD-4724-91CD-CB755F1B3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{715926DE-E4A4-4872-9261-CA293BDCA7B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{715926DE-E4A4-4872-9261-CA293BDCA7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Add IP" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4915D9E-CAE9-44C5-86C3-BFD495FDE734}">
   <dimension ref="D8:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9EA7AA-6958-49F8-8464-A08F0CAD7639}">
   <dimension ref="C4:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
